--- a/demo_data/HERBAR_TRUTH_FILE.xlsx
+++ b/demo_data/HERBAR_TRUTH_FILE.xlsx
@@ -612,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,11 @@
           <t>SKUs_in_SET</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SET_QUANTITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -653,6 +658,9 @@
           <t>LAV-10ML</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -670,6 +678,9 @@
           <t>CHAM-10ML</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -687,6 +698,9 @@
           <t>BOX-RELAX</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +718,9 @@
           <t>BAG-SM</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -721,6 +738,9 @@
           <t>PEPP-10ML</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -738,6 +758,9 @@
           <t>EUCA-10ML</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -755,6 +778,9 @@
           <t>BOX-ENERGY</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,6 +798,9 @@
           <t>BAG-SM</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -789,6 +818,9 @@
           <t>LAV-10ML</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -806,6 +838,9 @@
           <t>ROSE-10ML</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -823,6 +858,9 @@
           <t>CHAM-10ML</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -840,6 +878,9 @@
           <t>TEA-10ML</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -857,6 +898,9 @@
           <t>PEPP-10ML</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -871,8 +915,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>EUCA-10ML</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Complete Wellness Pack</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SET-WELLNESS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>BAG-LG</t>
         </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
